--- a/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Consumption_Municipal_waste_OECD_2013.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Consumption_Municipal_waste_OEC" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
@@ -293,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -314,6 +314,9 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -391,6 +394,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,9 +709,13 @@
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B38" s="12">
+        <v>647.0</v>
+      </c>
       <c r="C38" s="2">
         <v>647.0</v>
       </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -733,9 +743,13 @@
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B41" s="12">
+        <v>295.0</v>
+      </c>
       <c r="C41" s="2">
         <v>295.0</v>
       </c>
+      <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -763,9 +777,13 @@
       <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B44" s="12">
+        <v>293.0</v>
+      </c>
       <c r="C44" s="2">
         <v>293.0</v>
       </c>
+      <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -804,9 +822,13 @@
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B48" s="12">
+        <v>504.0</v>
+      </c>
       <c r="C48" s="2">
         <v>504.0</v>
       </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -823,25 +845,37 @@
       <c r="A50" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="B50" s="12">
+        <v>347.0</v>
+      </c>
       <c r="C50" s="2">
         <v>347.0</v>
       </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="B51" s="12">
+        <v>587.0</v>
+      </c>
       <c r="C51" s="2">
         <v>587.0</v>
       </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B52" s="12">
+        <v>607.0</v>
+      </c>
       <c r="C52" s="2">
         <v>607.0</v>
       </c>
+      <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -858,17 +892,25 @@
       <c r="A54" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="B54" s="12">
+        <v>354.0</v>
+      </c>
       <c r="C54" s="2">
         <v>354.0</v>
       </c>
+      <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="B55" s="12">
+        <v>306.0</v>
+      </c>
       <c r="C55" s="2">
         <v>306.0</v>
       </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -885,9 +927,13 @@
       <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B57" s="12">
+        <v>360.0</v>
+      </c>
       <c r="C57" s="2">
         <v>360.0</v>
       </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -926,108 +972,145 @@
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B61" s="12">
+        <v>297.0</v>
+      </c>
       <c r="C61" s="2">
         <v>297.0</v>
       </c>
+      <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="12">
+        <v>429.0</v>
+      </c>
       <c r="C62" s="2">
         <v>429.0</v>
       </c>
+      <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="12">
+        <v>563.0</v>
+      </c>
       <c r="C63" s="2">
         <v>563.0</v>
       </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="12">
+        <v>304.0</v>
+      </c>
       <c r="C64" s="2">
         <v>304.0</v>
       </c>
+      <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="12">
+        <v>409.0</v>
+      </c>
       <c r="C65" s="2">
         <v>409.0</v>
       </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="12">
+        <v>358.0</v>
+      </c>
       <c r="C66" s="2">
         <v>358.0</v>
       </c>
+      <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="12">
+        <v>455.0</v>
+      </c>
       <c r="C67" s="2">
         <v>455.0</v>
       </c>
+      <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="12">
+        <v>458.0</v>
+      </c>
       <c r="C68" s="2">
         <v>458.0</v>
       </c>
+      <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="12">
+        <v>712.0</v>
+      </c>
       <c r="C69" s="2">
         <v>712.0</v>
       </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" s="12">
+        <v>407.0</v>
+      </c>
       <c r="C70" s="2">
         <v>407.0</v>
       </c>
+      <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="2"/>
+      <c r="B71" s="12">
+        <v>494.0</v>
+      </c>
       <c r="C71" s="2">
         <v>494.0</v>
       </c>
+      <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B72" s="12">
+        <v>725.0</v>
+      </c>
       <c r="C72" s="2">
         <v>725.0</v>
       </c>
+      <c r="D72" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
@@ -406,7 +406,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG12_Municipal_waste_OECD_2014.xlsx
@@ -406,7 +406,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
